--- a/ky/downloads/data-excel/3.2.2.xlsx
+++ b/ky/downloads/data-excel/3.2.2.xlsx
@@ -158,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +246,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,7 +311,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -396,6 +404,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,7 +724,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,7 +735,7 @@
     <col min="4" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -742,7 +758,7 @@
       <c r="N1" s="15"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -764,7 +780,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -780,7 +796,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -838,8 +854,11 @@
       <c r="S4" s="24">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -897,173 +916,197 @@
       <c r="S5" s="25">
         <v>10.071559327675153</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="T5" s="25">
+        <v>10.734567774375416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25">
+      <c r="D6" s="26">
+        <v>22.790763743114631</v>
+      </c>
+      <c r="E6" s="26">
+        <v>22.288148486231552</v>
+      </c>
+      <c r="F6" s="26">
+        <v>19.921802271457832</v>
+      </c>
+      <c r="G6" s="26">
         <v>18.289259071098158</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>16.768074212082915</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="26">
         <v>16.123559498824978</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="26">
         <v>16.540713677994095</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="26">
         <v>16.894648428125748</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="26">
         <v>15.428233904311874</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="26">
         <v>13.418192114042323</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="26">
         <v>13.094077272784833</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="26">
         <v>13.215508319401323</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="26">
         <v>12.876696896299217</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="26">
         <v>12.5</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="26">
         <v>13.1</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="26">
         <v>10.551906067345987</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="T6" s="26">
+        <v>11.465104173618249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25">
+      <c r="D7" s="26">
+        <v>19.234622320176317</v>
+      </c>
+      <c r="E7" s="26">
+        <v>16.801402551865198</v>
+      </c>
+      <c r="F7" s="26">
+        <v>16.247658783938117</v>
+      </c>
+      <c r="G7" s="26">
         <v>14.412898703119524</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <v>13.848666602616012</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="26">
         <v>13.046652067157742</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="26">
         <v>13.148843854172178</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="26">
         <v>14.310654620060403</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="26">
         <v>12.46161264942514</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="26">
         <v>11.881394048903505</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="26">
         <v>10.421550373059354</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="26">
         <v>10.694287568191104</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="26">
         <v>10.6587660383149</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="26">
         <v>11</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="26">
         <v>10.6</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="26">
         <v>9.5619606820956751</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="T7" s="26">
+        <v>9.9642525403214446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>20.020581906632987</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>20.371251784864352</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>17.75295882647108</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>17.905102954341988</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>15.91196371477433</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>13.333333333333334</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>13.292290471526513</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <v>12.498301861160169</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="25">
         <v>11.21983039791259</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="25">
         <v>10.610820244328098</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <v>10.611457405758385</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="25">
         <v>9.3401424539712394</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="25">
         <v>10.465116279069766</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="25">
         <v>11.1</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="25">
         <v>11</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="25">
         <v>8.2747510251903922</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="25">
+        <v>8.0365048014710894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1073,9 +1116,15 @@
       <c r="C9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="D9" s="26">
+        <v>22.68262189676728</v>
+      </c>
+      <c r="E9" s="26">
+        <v>23.757707653246282</v>
+      </c>
+      <c r="F9" s="26">
+        <v>19.408054342552159</v>
+      </c>
       <c r="G9" s="26">
         <v>19.501466275659823</v>
       </c>
@@ -1115,8 +1164,11 @@
       <c r="S9" s="26">
         <v>7.6325088339222615</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="26">
+        <v>7.3384877473463499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1126,9 +1178,15 @@
       <c r="C10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="D10" s="26">
+        <v>17.092337917485263</v>
+      </c>
+      <c r="E10" s="26">
+        <v>16.629933880985774</v>
+      </c>
+      <c r="F10" s="26">
+        <v>15.99312123817713</v>
+      </c>
       <c r="G10" s="26">
         <v>16.251518833535844</v>
       </c>
@@ -1168,67 +1226,73 @@
       <c r="S10" s="26">
         <v>8.9652028567087072</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="T10" s="26">
+        <v>8.7918321043675558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>17.491993101749202</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>13.82849531868218</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>13.109231388919405</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <v>11.416709911779968</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>11.646040014599025</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>11.539978958442925</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>13.183481098183975</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>14.415325767394808</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="25">
         <v>12.659814489847079</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="25">
         <v>11.493097440021446</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <v>9.9185738699192445</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="25">
         <v>10.180383673209684</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="25">
         <v>9.5190846795448198</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="25">
         <v>8.6999999999999993</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="25">
         <v>10.199999999999999</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="25">
         <v>8.5830821067565175</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="25">
+        <v>6.8097801413840067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1238,9 +1302,15 @@
       <c r="C12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="D12" s="26">
+        <v>19.421323820848194</v>
+      </c>
+      <c r="E12" s="26">
+        <v>15.741380634262457</v>
+      </c>
+      <c r="F12" s="26">
+        <v>14.475185396463205</v>
+      </c>
       <c r="G12" s="26">
         <v>12.663343661592348</v>
       </c>
@@ -1280,8 +1350,11 @@
       <c r="S12" s="26">
         <v>10.275380189066995</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="26">
+        <v>7.8495916946255617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -1291,9 +1364,15 @@
       <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="26">
+        <v>15.418689837294488</v>
+      </c>
+      <c r="E13" s="26">
+        <v>11.836212412028152</v>
+      </c>
+      <c r="F13" s="26">
+        <v>11.667293940534437</v>
+      </c>
       <c r="G13" s="26">
         <v>10.10029162813856</v>
       </c>
@@ -1333,67 +1412,73 @@
       <c r="S13" s="26">
         <v>6.7661984261234096</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="T13" s="26">
+        <v>5.7177049398311288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>17.433751743375176</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>18.441460185360317</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>16.389013957676724</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <v>15.933098591549296</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>16.267429388630678</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <v>14.752650176678445</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <v>11.26105165193113</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <v>9.3061826223164097</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="25">
         <v>12.182109194380224</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="25">
         <v>8.4201388888888893</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="25">
         <v>9.4235033259423506</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="25">
         <v>8.4504536559331083</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="25">
         <v>11.651037226484798</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="25">
         <v>9.6999999999999993</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="25">
         <v>19.399999999999999</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="25">
         <v>9.0818473806623103</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="25">
+        <v>5.5726364335126828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -1403,9 +1488,15 @@
       <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="D15" s="26">
+        <v>21.032132424537487</v>
+      </c>
+      <c r="E15" s="26">
+        <v>22.853957636566332</v>
+      </c>
+      <c r="F15" s="26">
+        <v>14.873746108612936</v>
+      </c>
       <c r="G15" s="26">
         <v>19.34369602763385</v>
       </c>
@@ -1445,8 +1536,11 @@
       <c r="S15" s="26">
         <v>9.0186815546489161</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="26">
+        <v>5.8888479941111518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
@@ -1456,9 +1550,15 @@
       <c r="C16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="D16" s="26">
+        <v>13.665102998164389</v>
+      </c>
+      <c r="E16" s="26">
+        <v>13.86748844375963</v>
+      </c>
+      <c r="F16" s="26">
+        <v>18.034942701484127</v>
+      </c>
       <c r="G16" s="26">
         <v>12.387791741472173</v>
       </c>
@@ -1498,67 +1598,73 @@
       <c r="S16" s="26">
         <v>9.149130832570906</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="T16" s="26">
+        <v>5.2271813429835143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>17.912772585669781</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>16.943930991990143</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>14.464366430616241</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>12.251148545176111</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>10.273497153963627</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <v>12.369974697779028</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <v>11.584129742253113</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <v>12.209828157974075</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="25">
         <v>8.720930232558139</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="25">
         <v>11.227763196267134</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <v>9.9843993759750393</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="25">
         <v>8.1546360616128055</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="25">
         <v>6.6291017567119654</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="25">
         <v>9.6</v>
       </c>
-      <c r="R17" s="26">
+      <c r="R17" s="25">
         <v>9.4</v>
       </c>
-      <c r="S17" s="26">
+      <c r="S17" s="25">
         <v>8.0270384452893957</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="25">
+        <v>4.9464138499587795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1568,9 +1674,15 @@
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="D18" s="26">
+        <v>19.708914493632506</v>
+      </c>
+      <c r="E18" s="26">
+        <v>17.851739788199698</v>
+      </c>
+      <c r="F18" s="26">
+        <v>17.657445556209534</v>
+      </c>
       <c r="G18" s="26">
         <v>12.803050939798419</v>
       </c>
@@ -1610,8 +1722,11 @@
       <c r="S18" s="26">
         <v>8.8235294117647065</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="26">
+        <v>5.8886509635974305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
@@ -1621,9 +1736,15 @@
       <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="D19" s="26">
+        <v>16.015374759769379</v>
+      </c>
+      <c r="E19" s="26">
+        <v>16.002510197678067</v>
+      </c>
+      <c r="F19" s="26">
+        <v>11.114541525162087</v>
+      </c>
       <c r="G19" s="26">
         <v>11.674259681093394</v>
       </c>
@@ -1663,67 +1784,73 @@
       <c r="S19" s="26">
         <v>7.2217502124044177</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="T19" s="26">
+        <v>3.9525691699604741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>12.608002373271036</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="25">
         <v>13.417951042611062</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>10.630954024575452</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <v>10.695523608795495</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <v>8.2142857142857135</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <v>6.4441219158200287</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="25">
         <v>5.1059702769774935</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="25">
         <v>5.0451623403043371</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="25">
         <v>4.3125446565275087</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="25">
         <v>3.4859593304744778</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="25">
         <v>3.0982632671044028</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="25">
         <v>3.3626990523302669</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="25">
         <v>2.8324599915026201</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="25">
         <v>3.9</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="25">
         <v>3.1</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="25">
         <v>3.4213262670647033</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="25">
+        <v>1.7935943060498221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1733,9 +1860,15 @@
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="D21" s="26">
+        <v>12.992637505413599</v>
+      </c>
+      <c r="E21" s="26">
+        <v>14.691547138281576</v>
+      </c>
+      <c r="F21" s="26">
+        <v>12.544204977647295</v>
+      </c>
       <c r="G21" s="26">
         <v>12.92517006802721</v>
       </c>
@@ -1775,8 +1908,11 @@
       <c r="S21" s="26">
         <v>3.4802022457154114</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="26">
+        <v>2.2260559853080308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
@@ -1786,9 +1922,15 @@
       <c r="C22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="D22" s="26">
+        <v>12.201631968275757</v>
+      </c>
+      <c r="E22" s="26">
+        <v>12.033603269507305</v>
+      </c>
+      <c r="F22" s="26">
+        <v>8.5806220951018943</v>
+      </c>
       <c r="G22" s="26">
         <v>8.3872206927460144</v>
       </c>
@@ -1828,67 +1970,73 @@
       <c r="S22" s="26">
         <v>3.3598464070213931</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="T22" s="26">
+        <v>1.3406388435532757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>28.861020443222813</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <v>24.548244118649848</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>25.589947900704875</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>19.147084421235856</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>16.905248807089301</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>15.341308937368051</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <v>19.851851851851855</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="25">
         <v>16.656751933372991</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="25">
         <v>12.700332627759298</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="25">
         <v>12.336039975015614</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="25">
         <v>12.26790450928382</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O23" s="25">
         <v>16.684858880399187</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="25">
         <v>14.816047944065257</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="25">
         <v>20.6</v>
       </c>
-      <c r="R23" s="26">
+      <c r="R23" s="25">
         <v>15</v>
       </c>
-      <c r="S23" s="26">
+      <c r="S23" s="25">
         <v>12.808072967203572</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="25">
+        <v>9.113100081366964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -1898,9 +2046,15 @@
       <c r="C24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="26">
+        <v>32.937181663837009</v>
+      </c>
+      <c r="E24" s="26">
+        <v>26.245847176079732</v>
+      </c>
+      <c r="F24" s="26">
+        <v>28.698224852071004</v>
+      </c>
       <c r="G24" s="26">
         <v>22.151898734177216</v>
       </c>
@@ -1940,8 +2094,11 @@
       <c r="S24" s="26">
         <v>14.988470407378941</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="26">
+        <v>8.777633289986996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -1951,9 +2108,15 @@
       <c r="C25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="D25" s="26">
+        <v>24.687065368567456</v>
+      </c>
+      <c r="E25" s="26">
+        <v>22.75910364145658</v>
+      </c>
+      <c r="F25" s="26">
+        <v>22.250476795931341</v>
+      </c>
       <c r="G25" s="26">
         <v>16.091281451141018</v>
       </c>
@@ -1993,67 +2156,73 @@
       <c r="S25" s="26">
         <v>10.584084672677381</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="T25" s="26">
+        <v>9.4493320299771923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="25">
         <v>21.918468115854761</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="25">
         <v>19.965576592082616</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <v>18.539076376554174</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <v>16.072399980218584</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>15.374759769378604</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>14.294877668835333</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="25">
         <v>14.537283316518389</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="25">
         <v>13.354037267080745</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="25">
         <v>12.614627600089467</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="25">
         <v>10.40759449573245</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="25">
         <v>6.6553449304631203</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="25">
         <v>6.8021734755484005</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="25">
         <v>7.5963764877929885</v>
       </c>
-      <c r="Q26" s="26">
+      <c r="Q26" s="25">
         <v>6.9</v>
       </c>
-      <c r="R26" s="26">
+      <c r="R26" s="25">
         <v>7.9</v>
       </c>
-      <c r="S26" s="26">
+      <c r="S26" s="25">
         <v>7.1442946266854497</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="25">
+        <v>4.753114905399169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -2063,9 +2232,15 @@
       <c r="C27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="D27" s="26">
+        <v>23.945800724214461</v>
+      </c>
+      <c r="E27" s="26">
+        <v>24.466540051390908</v>
+      </c>
+      <c r="F27" s="26">
+        <v>20.4257149000215</v>
+      </c>
       <c r="G27" s="26">
         <v>18.399616674652613</v>
       </c>
@@ -2105,8 +2280,11 @@
       <c r="S27" s="26">
         <v>7.5305623471882646</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="26">
+        <v>5.1499819298879652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>42</v>
       </c>
@@ -2116,9 +2294,15 @@
       <c r="C28" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="D28" s="26">
+        <v>19.7613721103654</v>
+      </c>
+      <c r="E28" s="26">
+        <v>15.214058261587452</v>
+      </c>
+      <c r="F28" s="26">
+        <v>16.525131971540052</v>
+      </c>
       <c r="G28" s="26">
         <v>13.590844062947067</v>
       </c>
@@ -2158,67 +2342,73 @@
       <c r="S28" s="26">
         <v>6.7350533623458704</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="T28" s="26">
+        <v>4.3388039992454255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="25">
         <v>31.519613482112046</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="25">
         <v>29.874559859154928</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="25">
         <v>27.261588727792528</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="25">
         <v>25.128553410303677</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="25">
         <v>24.125336409073434</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="25">
         <v>21.386530080424137</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="25">
         <v>22.85490400940316</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="25">
         <v>25.985736535781623</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="25">
         <v>23.028611304954641</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="25">
         <v>22.846557579499844</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="25">
         <v>23.162225004471473</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="25">
         <v>22.937930537021675</v>
       </c>
-      <c r="P29" s="26">
+      <c r="P29" s="25">
         <v>19.881856540084385</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="Q29" s="25">
         <v>19</v>
       </c>
-      <c r="R29" s="26">
+      <c r="R29" s="25">
         <v>15.2</v>
       </c>
-      <c r="S29" s="26">
+      <c r="S29" s="25">
         <v>16.241806263656226</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="25">
+        <v>40.755007704160249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
@@ -2228,9 +2418,15 @@
       <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="D30" s="26">
+        <v>32.360262502828697</v>
+      </c>
+      <c r="E30" s="26">
+        <v>33.077004108290325</v>
+      </c>
+      <c r="F30" s="26">
+        <v>29.476418864908073</v>
+      </c>
       <c r="G30" s="26">
         <v>25.65795679652863</v>
       </c>
@@ -2270,8 +2466,11 @@
       <c r="S30" s="26">
         <v>15.614010409340272</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="26">
+        <v>39.809154614581779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -2281,9 +2480,15 @@
       <c r="C31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="D31" s="26">
+        <v>30.650444548432382</v>
+      </c>
+      <c r="E31" s="26">
+        <v>26.373373258090524</v>
+      </c>
+      <c r="F31" s="26">
+        <v>24.947807933194152</v>
+      </c>
       <c r="G31" s="26">
         <v>24.568061520023971</v>
       </c>
@@ -2323,67 +2528,73 @@
       <c r="S31" s="26">
         <v>16.915873735085334</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="T31" s="26">
+        <v>41.76630001594134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="25">
         <v>49.506943046890726</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="25">
         <v>42.992095623674572</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="25">
         <v>49.784765113232268</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <v>42.065009560229448</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="25">
         <v>46.632124352331608</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="25">
         <v>53.846153846153847</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="25">
         <v>55.639097744360903</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="25">
         <v>63.961300725611387</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="25">
         <v>61.96377502383222</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="25">
         <v>50.222162380503569</v>
       </c>
-      <c r="N32" s="26">
+      <c r="N32" s="25">
         <v>46.86485784759185</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O32" s="25">
         <v>34.244292617897017</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P32" s="25">
         <v>32.995296884185777</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="25">
         <v>32.9</v>
       </c>
-      <c r="R32" s="26">
+      <c r="R32" s="25">
         <v>27.9</v>
       </c>
-      <c r="S32" s="26">
+      <c r="S32" s="25">
         <v>22.910065805508165</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="25">
+        <v>57.518248175182478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -2393,9 +2604,15 @@
       <c r="C33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="D33" s="26">
+        <v>52.108194112967382</v>
+      </c>
+      <c r="E33" s="26">
+        <v>46.096654275092938</v>
+      </c>
+      <c r="F33" s="26">
+        <v>55.092424791591156</v>
+      </c>
       <c r="G33" s="26">
         <v>46.169287387085987</v>
       </c>
@@ -2435,8 +2652,11 @@
       <c r="S33" s="26">
         <v>24.889729048519218</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T33" s="26">
+        <v>66.761768901569198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
@@ -2446,9 +2666,15 @@
       <c r="C34" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="D34" s="27">
+        <v>46.843177189409367</v>
+      </c>
+      <c r="E34" s="27">
+        <v>39.647577092511014</v>
+      </c>
+      <c r="F34" s="27">
+        <v>44.117647058823529</v>
+      </c>
       <c r="G34" s="27">
         <v>37.626628075253258</v>
       </c>
@@ -2487,6 +2713,9 @@
       </c>
       <c r="S34" s="27">
         <v>20.801878879382652</v>
+      </c>
+      <c r="T34" s="27">
+        <v>47.832585949177876</v>
       </c>
     </row>
   </sheetData>
